--- a/choco/converters/validation/results/s2-02/sample_1/when-in-rome_109.xlsx
+++ b/choco/converters/validation/results/s2-02/sample_1/when-in-rome_109.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="41">
   <si>
     <t>type</t>
   </si>
@@ -76,7 +76,7 @@
     <t>F minor:I6[no1]</t>
   </si>
   <si>
-    <t>A:maj(*1)/3</t>
+    <t>F:maj(*1)/3</t>
   </si>
   <si>
     <t>I6 in F min is Ab, C, F - F minor in first inversion, annotated incorrectly. It's F major first inversion</t>
@@ -85,7 +85,7 @@
     <t>F minor:V65[no3]</t>
   </si>
   <si>
-    <t>G:(*3,5,b7)/5</t>
+    <t>C:(*3,5,b7)/5</t>
   </si>
   <si>
     <t xml:space="preserve">should be C7 but the E missing </t>
@@ -103,16 +103,13 @@
     <t>F minor:V6</t>
   </si>
   <si>
-    <t>E:maj/3</t>
+    <t>F:maj/3</t>
   </si>
   <si>
     <t>should be C maj first inversion, the key is F maj not F min</t>
   </si>
   <si>
     <t>F minor:I6</t>
-  </si>
-  <si>
-    <t>A:maj/3</t>
   </si>
   <si>
     <t>I6 in F min is Ab, C, F - F minor in first inversion, the chord is F major, functioning as V in Bb maj</t>
@@ -876,8 +873,8 @@
       <c r="E27" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="4" t="b">
-        <v>0</v>
+      <c r="F27" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>22</v>
@@ -899,8 +896,8 @@
       <c r="E28" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="4" t="b">
-        <v>0</v>
+      <c r="F28" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>25</v>
@@ -923,7 +920,7 @@
         <v>27</v>
       </c>
       <c r="F29" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>28</v>
@@ -945,8 +942,8 @@
       <c r="E30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="4" t="b">
-        <v>0</v>
+      <c r="F30" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>31</v>
@@ -969,7 +966,7 @@
         <v>27</v>
       </c>
       <c r="F31" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>28</v>
@@ -989,13 +986,13 @@
         <v>32</v>
       </c>
       <c r="E32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="F32" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="33">
@@ -1152,7 +1149,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B41" s="2">
         <v>1.1</v>
@@ -1161,15 +1158,15 @@
         <v>24.0</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B42" s="2">
         <v>13.1</v>
@@ -1178,15 +1175,15 @@
         <v>4.0</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B43" s="2">
         <v>15.1</v>
@@ -1195,15 +1192,15 @@
         <v>4.0</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B44" s="2">
         <v>17.1</v>
@@ -1212,10 +1209,10 @@
         <v>8.0</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
